--- a/ISGTConferencePaper_Frowijn et al.(2024) supplementary documentation.xlsx
+++ b/ISGTConferencePaper_Frowijn et al.(2024) supplementary documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/lfrowijn_tudelft_nl/Documents/Research/0.Papers/Paper 3.5 small paper/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{2E3E966E-BCAB-4543-8A00-C332693BACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340E29A1-7C44-41C3-AE95-40B58EACBBEB}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{2E3E966E-BCAB-4543-8A00-C332693BACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A293D72-EEAD-4FA7-8616-940BE55CD154}"/>
   <bookViews>
-    <workbookView xWindow="-2925" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22275" yWindow="-16425" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="45" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="289">
   <si>
     <t>km</t>
   </si>
@@ -566,9 +566,6 @@
     <t>ISPT, 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">ISPT, 2023; </t>
-  </si>
-  <si>
     <t>ISPT, 2023; Krishnan et al., 2023; Glenk &amp; Reichelstein, 2018; Deloitte, 2021</t>
   </si>
   <si>
@@ -675,9 +672,6 @@
   </si>
   <si>
     <t>Additional area</t>
-  </si>
-  <si>
-    <t>Inflation included</t>
   </si>
   <si>
     <t>CAPEX (with BOP, civil, utilities, power electronics, indirect cost, owner cost,BoP)</t>
@@ -2028,7 +2022,7 @@
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2376,6 +2370,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="24" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="12" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="11" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" xfId="13" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2406,27 +2415,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="50" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2437,6 +2425,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="49" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="50" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2454,21 +2463,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="24" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="24" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="8" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="12" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="11" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="8" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="20% - Accent1" xfId="15" builtinId="30"/>
@@ -3892,7 +3889,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3908,7 +3909,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3986,7 +3991,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -4004,7 +4013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -4044,7 +4057,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -4062,7 +4079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -4126,6 +4147,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -4190,6 +4216,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-7357-4562-8717-754B021B806A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -10109,7 +10140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D8D6F-F7D1-4274-970B-3377463B3A82}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -10119,140 +10150,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="190" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="199" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="201"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="193" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="195"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="193" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="218"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="225" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="227"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="219" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="195"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="219" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="193" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="220"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="221"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="219" t="s">
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="195"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="193" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="221"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="219" t="s">
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="195"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="196" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="220"/>
-      <c r="I6" s="220"/>
-      <c r="J6" s="220"/>
-      <c r="K6" s="220"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="221"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="219" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="221"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="222" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="224"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="198"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10296,60 +10327,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="188"/>
-      <c r="P1" s="188"/>
-      <c r="Q1" s="188"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="188"/>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="203"/>
+      <c r="T1" s="203"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="203"/>
+      <c r="W1" s="203"/>
+      <c r="X1" s="203"/>
+      <c r="Y1" s="203"/>
     </row>
     <row r="2" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="188" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="215">
+      <c r="B2" s="189">
         <v>250</v>
       </c>
       <c r="Z2" s="6"/>
       <c r="AA2" s="134"/>
     </row>
     <row r="3" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="214" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="215" t="s">
-        <v>191</v>
+      <c r="A3" s="188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="189" t="s">
+        <v>190</v>
       </c>
       <c r="D3" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="213">
+      <c r="E3" s="187">
         <f>Modelling!$D$1</f>
         <v>2.4715418947651613</v>
       </c>
       <c r="F3" s="154" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -10358,10 +10389,10 @@
       <c r="AA3" s="134"/>
     </row>
     <row r="4" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="214" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="215" t="s">
+      <c r="A4" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="189" t="s">
         <v>130</v>
       </c>
       <c r="Z4" s="6"/>
@@ -10403,7 +10434,7 @@
     </row>
     <row r="8" spans="1:29" ht="23.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="169"/>
       <c r="D8" s="169"/>
@@ -10423,10 +10454,10 @@
     </row>
     <row r="9" spans="1:29" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="132" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="143"/>
       <c r="H9" s="143"/>
@@ -10444,7 +10475,7 @@
     </row>
     <row r="10" spans="1:29" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" s="123">
         <v>52000</v>
@@ -10469,7 +10500,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11" s="137">
         <v>121333.33333333333</v>
@@ -10493,7 +10524,7 @@
     </row>
     <row r="12" spans="1:29" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="123">
         <v>63000</v>
@@ -10511,7 +10542,7 @@
     </row>
     <row r="13" spans="1:29" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="137">
         <v>147000</v>
@@ -10549,7 +10580,7 @@
     </row>
     <row r="16" spans="1:29" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B16" s="137">
         <v>500000</v>
@@ -10566,7 +10597,7 @@
     </row>
     <row r="17" spans="1:22" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B17" s="138">
         <v>0.84</v>
@@ -10584,7 +10615,7 @@
     </row>
     <row r="18" spans="1:22" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B18" s="138">
         <v>0.94</v>
@@ -10602,7 +10633,7 @@
     </row>
     <row r="19" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" s="138">
         <v>0.84</v>
@@ -10628,7 +10659,7 @@
     </row>
     <row r="20" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" s="138">
         <v>0.96</v>
@@ -10654,7 +10685,7 @@
     </row>
     <row r="21" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B21" s="123">
         <v>2</v>
@@ -10682,7 +10713,7 @@
     </row>
     <row r="22" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B22" s="123">
         <v>1.5</v>
@@ -10707,7 +10738,7 @@
     </row>
     <row r="23" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B23" s="123">
         <v>12000000</v>
@@ -10732,7 +10763,7 @@
     </row>
     <row r="24" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B24" s="123">
         <v>7550000</v>
@@ -10754,7 +10785,7 @@
     </row>
     <row r="25" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B25" s="123">
         <v>0.01</v>
@@ -10776,7 +10807,7 @@
     </row>
     <row r="26" spans="1:22" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="132" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" s="132"/>
       <c r="I26" s="145"/>
@@ -10791,7 +10822,7 @@
     </row>
     <row r="27" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="123">
         <v>1</v>
@@ -10814,7 +10845,7 @@
     </row>
     <row r="28" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28" s="123">
         <v>1</v>
@@ -10840,7 +10871,7 @@
     </row>
     <row r="29" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" s="123">
         <v>2500000</v>
@@ -10862,14 +10893,14 @@
     </row>
     <row r="30" spans="1:22" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B30" s="132"/>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I30" s="145"/>
       <c r="M30" s="146"/>
@@ -10883,7 +10914,7 @@
     </row>
     <row r="31" spans="1:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B31" s="123">
         <v>840000</v>
@@ -10912,7 +10943,7 @@
     </row>
     <row r="33" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" s="123">
         <v>235000</v>
@@ -10934,7 +10965,7 @@
     </row>
     <row r="34" spans="1:48" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="132" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" s="132"/>
       <c r="I34" s="145"/>
@@ -10950,7 +10981,7 @@
     </row>
     <row r="35" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B35" s="138">
         <v>1</v>
@@ -10975,7 +11006,7 @@
     </row>
     <row r="36" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B36" s="123">
         <v>1</v>
@@ -10999,7 +11030,7 @@
     </row>
     <row r="37" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B37" s="123">
         <v>1</v>
@@ -11047,7 +11078,7 @@
     </row>
     <row r="39" spans="1:48" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="132" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39" s="132"/>
       <c r="I39" s="145"/>
@@ -11072,7 +11103,7 @@
     </row>
     <row r="40" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B40" s="156">
         <v>88000</v>
@@ -11235,16 +11266,16 @@
     </row>
     <row r="48" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="170" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="170" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="170" t="s">
+      <c r="D48" s="170" t="s">
         <v>192</v>
-      </c>
-      <c r="D48" s="170" t="s">
-        <v>193</v>
       </c>
       <c r="R48" s="6"/>
       <c r="T48" s="147"/>
@@ -11290,7 +11321,7 @@
     </row>
     <row r="50" spans="1:48" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B50" s="123" t="s">
         <v>129</v>
@@ -11619,7 +11650,7 @@
       <c r="R87" s="177"/>
       <c r="S87" s="167"/>
       <c r="V87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="15:22" x14ac:dyDescent="0.35">
@@ -11646,7 +11677,7 @@
     </row>
     <row r="99" spans="3:25" x14ac:dyDescent="0.35">
       <c r="Y99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="3:25" x14ac:dyDescent="0.35">
@@ -12498,37 +12529,37 @@
       </c>
     </row>
     <row r="3" spans="3:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="188"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="188"/>
-      <c r="T3" s="188"/>
-      <c r="U3" s="188"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="188"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+      <c r="Q3" s="203"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="203"/>
+      <c r="T3" s="203"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="203"/>
     </row>
     <row r="4" spans="3:26" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C4" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="124" t="str">
         <f>Variables!B3</f>
@@ -12537,11 +12568,11 @@
       <c r="I4" s="124"/>
     </row>
     <row r="5" spans="3:26" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" s="189" t="s">
+      <c r="C5" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="206"/>
       <c r="G5" s="125" t="s">
         <v>106</v>
       </c>
@@ -12565,7 +12596,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" s="124" t="str">
         <f>Variables!B4</f>
@@ -12612,7 +12643,7 @@
     </row>
     <row r="11" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C11" s="131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11">
         <v>8765</v>
@@ -12630,11 +12661,11 @@
       </c>
     </row>
     <row r="13" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="194"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="209"/>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C14" s="57" t="s">
@@ -12684,30 +12715,30 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C20" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="95">
         <f>D8*0.001*9</f>
         <v>8493211.2957878616</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
     </row>
     <row r="22" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
@@ -12716,7 +12747,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="56" t="s">
@@ -12738,10 +12769,10 @@
         <v>7</v>
       </c>
       <c r="L22" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M22" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -12822,11 +12853,11 @@
         <v>4</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G26" s="64" t="s">
         <v>81</v>
@@ -12844,10 +12875,10 @@
         <v>7</v>
       </c>
       <c r="L26" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -12951,10 +12982,10 @@
         <v>7</v>
       </c>
       <c r="L30" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M30" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -13058,10 +13089,10 @@
         <v>7</v>
       </c>
       <c r="L34" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M34" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -13167,10 +13198,10 @@
         <v>7</v>
       </c>
       <c r="L38" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M38" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q38" s="49"/>
       <c r="R38" s="49"/>
@@ -13295,10 +13326,10 @@
         <v>7</v>
       </c>
       <c r="L42" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M42" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O42" s="49"/>
       <c r="P42" s="49"/>
@@ -13425,10 +13456,10 @@
         <v>7</v>
       </c>
       <c r="L46" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M46" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O46" s="49"/>
       <c r="P46" s="49"/>
@@ -13561,10 +13592,10 @@
         <v>7</v>
       </c>
       <c r="L50" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M50" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -13676,10 +13707,10 @@
         <v>7</v>
       </c>
       <c r="L54" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M54" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q54" s="49"/>
       <c r="R54" s="49"/>
@@ -13802,10 +13833,10 @@
         <v>7</v>
       </c>
       <c r="L58" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M58" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N58" s="49"/>
       <c r="O58" s="49"/>
@@ -13931,10 +13962,10 @@
         <v>7</v>
       </c>
       <c r="L62" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M62" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N62" s="49"/>
       <c r="O62" s="49"/>
@@ -14058,10 +14089,10 @@
         <v>7</v>
       </c>
       <c r="L66" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M66" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N66" s="49"/>
       <c r="O66" s="49"/>
@@ -14185,10 +14216,10 @@
         <v>7</v>
       </c>
       <c r="L70" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M70" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N70" s="49"/>
       <c r="O70" s="49"/>
@@ -14312,10 +14343,10 @@
         <v>7</v>
       </c>
       <c r="L74" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M74" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N74" s="49"/>
       <c r="O74" s="49"/>
@@ -14500,11 +14531,11 @@
         <v>4</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E82" s="56"/>
       <c r="F82" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G82" s="64" t="s">
         <v>81</v>
@@ -14522,10 +14553,10 @@
         <v>7</v>
       </c>
       <c r="L82" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M82" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N82" s="49"/>
       <c r="O82" s="49"/>
@@ -14626,11 +14657,11 @@
         <v>4</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E86" s="56"/>
       <c r="F86" s="56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G86" s="64" t="s">
         <v>81</v>
@@ -14648,10 +14679,10 @@
         <v>7</v>
       </c>
       <c r="L86" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M86" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N86" s="49"/>
       <c r="O86" s="49"/>
@@ -14757,11 +14788,11 @@
         <v>4</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E90" s="56"/>
       <c r="F90" s="56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G90" s="64" t="s">
         <v>81</v>
@@ -14779,10 +14810,10 @@
         <v>7</v>
       </c>
       <c r="L90" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M90" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N90" s="49"/>
       <c r="O90" s="49"/>
@@ -14883,7 +14914,7 @@
         <v>4</v>
       </c>
       <c r="D94" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" s="56"/>
       <c r="F94" s="56" t="s">
@@ -14905,10 +14936,10 @@
         <v>7</v>
       </c>
       <c r="L94" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M94" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N94" s="49"/>
       <c r="O94" s="49"/>
@@ -14918,7 +14949,7 @@
     </row>
     <row r="95" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C95" s="111" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D95" s="50">
         <f>IF(OR(H4="Offshore centralized electrolysis", H4="Offshore decentralized electrolysis"), (Data!I59*Data!C99+Data!I59)*M95, IF(H4="Onshore centralized electrolysis", (Data!I59)*M95, 0))</f>
@@ -14984,11 +15015,11 @@
         <v>4</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E98" s="56"/>
       <c r="F98" s="56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G98" s="64" t="s">
         <v>81</v>
@@ -15000,10 +15031,10 @@
         <v>7</v>
       </c>
       <c r="L98" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M98" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="3:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -15079,10 +15110,10 @@
         <v>7</v>
       </c>
       <c r="L102" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M102" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="3:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -15158,10 +15189,10 @@
         <v>7</v>
       </c>
       <c r="L106" s="114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M106" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="3:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -16852,7 +16883,7 @@
     </row>
     <row r="142" spans="1:13" ht="47.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A142" s="148" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -16898,7 +16929,7 @@
         <v>24</v>
       </c>
       <c r="M144" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -18520,7 +18551,7 @@
         <v>27</v>
       </c>
       <c r="C173" s="133" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -18555,7 +18586,7 @@
         <v>24</v>
       </c>
       <c r="M174" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -20177,7 +20208,7 @@
         <v>31</v>
       </c>
       <c r="C203" s="133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -20212,7 +20243,7 @@
         <v>24</v>
       </c>
       <c r="M204" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -21846,7 +21877,7 @@
         <v>35</v>
       </c>
       <c r="C233" s="133" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -21881,7 +21912,7 @@
         <v>24</v>
       </c>
       <c r="M234" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -23538,7 +23569,7 @@
         <v>24</v>
       </c>
       <c r="M264" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -25195,7 +25226,7 @@
         <v>24</v>
       </c>
       <c r="M294" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -26852,7 +26883,7 @@
         <v>24</v>
       </c>
       <c r="M324" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -28509,7 +28540,7 @@
         <v>24</v>
       </c>
       <c r="M354" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -30131,7 +30162,7 @@
         <v>55</v>
       </c>
       <c r="C383" s="133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -30166,7 +30197,7 @@
         <v>24</v>
       </c>
       <c r="M384" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="385" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -31823,7 +31854,7 @@
         <v>24</v>
       </c>
       <c r="M414" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -33480,7 +33511,7 @@
         <v>24</v>
       </c>
       <c r="M444" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="445" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -35137,7 +35168,7 @@
         <v>24</v>
       </c>
       <c r="M474" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="475" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -36794,7 +36825,7 @@
         <v>24</v>
       </c>
       <c r="M504" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="505" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -38416,7 +38447,7 @@
         <v>75</v>
       </c>
       <c r="C533" s="133" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="534" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -38451,7 +38482,7 @@
         <v>24</v>
       </c>
       <c r="M534" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="535" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -40108,7 +40139,7 @@
         <v>24</v>
       </c>
       <c r="M564" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="565" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -41765,7 +41796,7 @@
         <v>24</v>
       </c>
       <c r="M594" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="595" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -43399,7 +43430,7 @@
         <v>87</v>
       </c>
       <c r="C623" s="133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="624" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -43434,7 +43465,7 @@
         <v>24</v>
       </c>
       <c r="M624" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="625" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -45068,7 +45099,7 @@
         <v>91</v>
       </c>
       <c r="C653" s="133" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="654" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -45103,7 +45134,7 @@
         <v>24</v>
       </c>
       <c r="M654" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="655" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -46772,7 +46803,7 @@
         <v>24</v>
       </c>
       <c r="M684" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="685" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -48406,7 +48437,7 @@
         <v>99</v>
       </c>
       <c r="C713" s="133" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="714" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -48441,7 +48472,7 @@
         <v>24</v>
       </c>
       <c r="M714" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="715" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -50075,7 +50106,7 @@
         <v>103</v>
       </c>
       <c r="C743" s="133" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="744" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.5">
@@ -50110,7 +50141,7 @@
         <v>24</v>
       </c>
       <c r="M744" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="745" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -51742,7 +51773,7 @@
         <v>24</v>
       </c>
       <c r="M774" s="152" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="775" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
@@ -53359,7 +53390,7 @@
     </row>
     <row r="804" spans="3:13" x14ac:dyDescent="0.35">
       <c r="M804" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="805" spans="3:13" x14ac:dyDescent="0.35">
@@ -53396,8 +53427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA80516-3CD7-48EA-8363-3CB456B40459}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53419,50 +53450,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="212" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="213" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="207"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="215"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="216" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="199"/>
-      <c r="G4" s="197" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="198"/>
-      <c r="I4" s="199"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="218"/>
+      <c r="G4" s="216" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="217"/>
+      <c r="I4" s="218"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="102" t="s">
@@ -53540,7 +53571,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" s="99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="101">
         <f>Variables!B24</f>
@@ -53550,7 +53581,7 @@
         <v>124</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -53565,12 +53596,12 @@
         <v>124</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" s="99" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="50">
         <v>9000000</v>
@@ -53584,7 +53615,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" s="99" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="79">
         <f>SUM(C8:C10)</f>
@@ -53623,31 +53654,31 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="205" t="s">
+      <c r="B16" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="215"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="195" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="G17" s="195" t="s">
-        <v>248</v>
-      </c>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
-      <c r="J17" s="196"/>
-      <c r="K17" s="196"/>
+      <c r="B17" s="210" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="G17" s="210" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
+      <c r="K17" s="211"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="102" t="s">
@@ -53713,7 +53744,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G20" s="50" t="s">
         <v>85</v>
@@ -53725,7 +53756,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
@@ -53740,7 +53771,7 @@
         <v>156</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G21" s="50" t="s">
         <v>73</v>
@@ -53831,12 +53862,12 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="210" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="196"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="196"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="211"/>
+      <c r="E26" s="211"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="102" t="s">
@@ -53893,7 +53924,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
@@ -53925,31 +53956,31 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="221" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="201"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="222"/>
+      <c r="I34" s="222"/>
+      <c r="J34" s="222"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="195" t="s">
+      <c r="B35" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="G35" s="202" t="s">
+      <c r="C35" s="211"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="211"/>
+      <c r="G35" s="219" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="102" t="s">
@@ -54016,7 +54047,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F38" s="49"/>
       <c r="G38" s="164" t="s">
@@ -54030,7 +54061,7 @@
         <v>50</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
@@ -54045,7 +54076,7 @@
         <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F39" s="166"/>
       <c r="G39" s="164" t="s">
@@ -54147,19 +54178,19 @@
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="195" t="s">
+      <c r="B44" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="196"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="211"/>
       <c r="F44" s="49"/>
-      <c r="G44" s="195" t="s">
+      <c r="G44" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="211"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="102" t="s">
@@ -54243,8 +54274,8 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="50" t="s">
-        <v>201</v>
+      <c r="B48" s="228" t="s">
+        <v>199</v>
       </c>
       <c r="C48" s="50">
         <f>Variables!B11</f>
@@ -54256,8 +54287,8 @@
       <c r="E48" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="50" t="s">
-        <v>201</v>
+      <c r="G48" s="228" t="s">
+        <v>199</v>
       </c>
       <c r="H48" s="79">
         <f>Variables!B13</f>
@@ -54267,7 +54298,7 @@
         <v>71</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -54307,7 +54338,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="50" t="s">
         <v>13</v>
@@ -54319,30 +54350,30 @@
         <v>50</v>
       </c>
       <c r="J50" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B51" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="108">
         <v>10</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E51" s="48" t="s">
         <v>119</v>
       </c>
       <c r="G51" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H51" s="108">
         <v>7.5</v>
       </c>
       <c r="I51" s="48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J51" s="48" t="s">
         <v>119</v>
@@ -54355,44 +54386,44 @@
       <c r="H52" s="129"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B54" s="200" t="s">
+      <c r="B54" s="221" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
-      <c r="F54" s="201"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="201"/>
-      <c r="I54" s="201"/>
-      <c r="J54" s="201"/>
-      <c r="K54" s="201"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="201"/>
-      <c r="O54" s="201"/>
-      <c r="P54" s="201"/>
-      <c r="Q54" s="201"/>
+      <c r="C54" s="222"/>
+      <c r="D54" s="222"/>
+      <c r="E54" s="222"/>
+      <c r="F54" s="222"/>
+      <c r="G54" s="222"/>
+      <c r="H54" s="222"/>
+      <c r="I54" s="222"/>
+      <c r="J54" s="222"/>
+      <c r="K54" s="222"/>
+      <c r="L54" s="222"/>
+      <c r="M54" s="222"/>
+      <c r="N54" s="222"/>
+      <c r="O54" s="222"/>
+      <c r="P54" s="222"/>
+      <c r="Q54" s="222"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B55" s="195" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="196"/>
-      <c r="D55" s="196"/>
-      <c r="E55" s="196"/>
-      <c r="H55" s="195" t="s">
-        <v>280</v>
-      </c>
-      <c r="I55" s="196"/>
-      <c r="J55" s="196"/>
-      <c r="K55" s="196"/>
-      <c r="N55" s="195" t="s">
-        <v>219</v>
-      </c>
-      <c r="O55" s="196"/>
-      <c r="P55" s="196"/>
-      <c r="Q55" s="196"/>
+      <c r="B55" s="210" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="211"/>
+      <c r="D55" s="211"/>
+      <c r="E55" s="211"/>
+      <c r="H55" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="I55" s="211"/>
+      <c r="J55" s="211"/>
+      <c r="K55" s="211"/>
+      <c r="N55" s="210" t="s">
+        <v>217</v>
+      </c>
+      <c r="O55" s="211"/>
+      <c r="P55" s="211"/>
+      <c r="Q55" s="211"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B56" s="102" t="s">
@@ -54480,7 +54511,7 @@
         <v>0.99999970000000005</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E58" s="48" t="s">
         <v>122</v>
@@ -54508,7 +54539,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B59" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C59" s="50">
         <f>Variables!B31</f>
@@ -54527,7 +54558,7 @@
         <v>1000000</v>
       </c>
       <c r="J59" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K59" s="48" t="s">
         <v>135</v>
@@ -54543,10 +54574,10 @@
         <v>71</v>
       </c>
       <c r="Q59" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -54576,7 +54607,7 @@
         <v>93</v>
       </c>
       <c r="Q60" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
@@ -54632,21 +54663,21 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H63" s="195" t="s">
+      <c r="H63" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="196"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="196"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="211"/>
       <c r="O63" s="100"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B64" s="195" t="s">
+      <c r="B64" s="210" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="196"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="196"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="211"/>
+      <c r="E64" s="211"/>
       <c r="H64" s="102" t="s">
         <v>56</v>
       </c>
@@ -54707,7 +54738,7 @@
         <v>0.99997000000000003</v>
       </c>
       <c r="J66" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K66" s="48" t="s">
         <v>122</v>
@@ -54722,7 +54753,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E67" s="48" t="s">
         <v>153</v>
@@ -54739,7 +54770,7 @@
         <v>118</v>
       </c>
       <c r="K67" s="48" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
@@ -54754,7 +54785,7 @@
         <v>118</v>
       </c>
       <c r="E68" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H68" s="50" t="s">
         <v>94</v>
@@ -54780,7 +54811,7 @@
         <v>93</v>
       </c>
       <c r="E69" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H69" s="50" t="s">
         <v>104</v>
@@ -54810,18 +54841,18 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="195" t="s">
+      <c r="B72" s="210" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="196"/>
-      <c r="D72" s="196"/>
-      <c r="E72" s="196"/>
-      <c r="H72" s="195" t="s">
+      <c r="C72" s="211"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="211"/>
+      <c r="H72" s="210" t="s">
         <v>148</v>
       </c>
-      <c r="I72" s="196"/>
-      <c r="J72" s="196"/>
-      <c r="K72" s="196"/>
+      <c r="I72" s="211"/>
+      <c r="J72" s="211"/>
+      <c r="K72" s="211"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="102" t="s">
@@ -54887,7 +54918,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H75" s="50" t="s">
         <v>70</v>
@@ -54900,7 +54931,7 @@
         <v>71</v>
       </c>
       <c r="K75" s="48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
@@ -54984,31 +55015,31 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="200" t="s">
+      <c r="B80" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="201"/>
-      <c r="D80" s="201"/>
-      <c r="E80" s="201"/>
-      <c r="F80" s="201"/>
-      <c r="G80" s="201"/>
-      <c r="H80" s="201"/>
-      <c r="I80" s="201"/>
-      <c r="J80" s="201"/>
+      <c r="C80" s="222"/>
+      <c r="D80" s="222"/>
+      <c r="E80" s="222"/>
+      <c r="F80" s="222"/>
+      <c r="G80" s="222"/>
+      <c r="H80" s="222"/>
+      <c r="I80" s="222"/>
+      <c r="J80" s="222"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="195" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="196"/>
-      <c r="D81" s="196"/>
-      <c r="E81" s="196"/>
-      <c r="G81" s="195" t="s">
+      <c r="B81" s="210" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="211"/>
+      <c r="D81" s="211"/>
+      <c r="E81" s="211"/>
+      <c r="G81" s="210" t="s">
         <v>114</v>
       </c>
-      <c r="H81" s="196"/>
-      <c r="I81" s="196"/>
-      <c r="J81" s="196"/>
+      <c r="H81" s="211"/>
+      <c r="I81" s="211"/>
+      <c r="J81" s="211"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="102" t="s">
@@ -55047,7 +55078,7 @@
         <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G83" s="50" t="s">
         <v>73</v>
@@ -55057,15 +55088,15 @@
         <v>0.03</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J83" s="98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" s="50">
         <v>4.0000000000000002E-4</v>
@@ -55074,7 +55105,7 @@
         <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G84" s="50" t="s">
         <v>12</v>
@@ -55091,7 +55122,7 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C85" s="82">
         <v>0.98</v>
@@ -55100,10 +55131,10 @@
         <v>50</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G85" s="50" t="s">
         <v>85</v>
@@ -55127,7 +55158,7 @@
         <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G86" s="50" t="s">
         <v>94</v>
@@ -55139,7 +55170,7 @@
         <v>116</v>
       </c>
       <c r="J86" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
@@ -55177,22 +55208,22 @@
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="195" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="196"/>
-      <c r="D90" s="196"/>
-      <c r="E90" s="196"/>
-      <c r="G90" s="195" t="s">
+      <c r="B90" s="210" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="211"/>
+      <c r="D90" s="211"/>
+      <c r="E90" s="211"/>
+      <c r="G90" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="196"/>
-      <c r="I90" s="196"/>
-      <c r="J90" s="196"/>
+      <c r="H90" s="211"/>
+      <c r="I90" s="211"/>
+      <c r="J90" s="211"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="102" t="s">
@@ -55228,11 +55259,10 @@
         <v>0.2</v>
       </c>
       <c r="D92" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92" s="48"/>
-      <c r="F92" t="s">
-        <v>200</v>
+        <v>180</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>155</v>
       </c>
       <c r="G92" s="50" t="s">
         <v>73</v>
@@ -55242,7 +55272,7 @@
         <v>0.1</v>
       </c>
       <c r="I92" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J92" s="48"/>
     </row>
@@ -55262,17 +55292,17 @@
     </row>
     <row r="96" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="195" t="s">
+      <c r="B97" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="196"/>
-      <c r="D97" s="196"/>
-      <c r="E97" s="196"/>
-      <c r="H97" s="197" t="s">
-        <v>240</v>
-      </c>
-      <c r="I97" s="198"/>
-      <c r="J97" s="199"/>
+      <c r="C97" s="211"/>
+      <c r="D97" s="211"/>
+      <c r="E97" s="211"/>
+      <c r="H97" s="216" t="s">
+        <v>238</v>
+      </c>
+      <c r="I97" s="217"/>
+      <c r="J97" s="218"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="102" t="s">
@@ -55297,39 +55327,39 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99" s="108">
         <f>Variables!B21</f>
         <v>2</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>135</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I99" s="140">
         <f>Variables!B16</f>
         <v>500000</v>
       </c>
       <c r="J99" s="48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100" s="50">
         <f>Variables!B22</f>
         <v>1.5</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" s="48" t="s">
         <v>135</v>
@@ -55345,12 +55375,12 @@
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="196"/>
-      <c r="D102" s="196"/>
-      <c r="E102" s="196"/>
+      <c r="B102" s="210" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="211"/>
+      <c r="D102" s="211"/>
+      <c r="E102" s="211"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="102" t="s">
@@ -55368,13 +55398,13 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C104" s="50">
         <v>1060</v>
       </c>
       <c r="D104" s="48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E104" s="48" t="s">
         <v>158</v>
@@ -55391,7 +55421,7 @@
         <v>50</v>
       </c>
       <c r="E105" s="48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
@@ -55405,7 +55435,7 @@
         <v>82</v>
       </c>
       <c r="E106" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
@@ -55431,24 +55461,11 @@
         <v>93</v>
       </c>
       <c r="E108" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B34:J34"/>
     <mergeCell ref="B97:E97"/>
     <mergeCell ref="H97:J97"/>
     <mergeCell ref="B102:E102"/>
@@ -55465,6 +55482,19 @@
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="H63:K63"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55511,12 +55541,12 @@
       <c r="F1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="208" t="s">
+      <c r="H1" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="210"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
@@ -56415,10 +56445,10 @@
       <c r="B1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="211" t="s">
+      <c r="E1" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="212"/>
+      <c r="F1" s="227"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="45">

--- a/ISGTConferencePaper_Frowijn et al.(2024) supplementary documentation.xlsx
+++ b/ISGTConferencePaper_Frowijn et al.(2024) supplementary documentation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/lfrowijn_tudelft_nl/Documents/Research/0.Papers/Paper 3.5 small paper/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{2E3E966E-BCAB-4543-8A00-C332693BACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A293D72-EEAD-4FA7-8616-940BE55CD154}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{2E3E966E-BCAB-4543-8A00-C332693BACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F8B131-ECE3-4EA2-A6C4-AFD96713B8D8}"/>
   <bookViews>
-    <workbookView xWindow="22275" yWindow="-16425" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22275" yWindow="-16425" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="45" r:id="rId1"/>
+    <sheet name="Read me" sheetId="45" r:id="rId1"/>
     <sheet name="Variables" sheetId="14" r:id="rId2"/>
     <sheet name="Modelling" sheetId="44" r:id="rId3"/>
     <sheet name="Data" sheetId="13" r:id="rId4"/>
@@ -2385,6 +2385,9 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" xfId="13" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="8" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="9" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2415,6 +2418,27 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="50" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2425,27 +2449,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="49" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="50" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2462,9 +2465,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -10140,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D8D6F-F7D1-4274-970B-3377463B3A82}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10327,33 +10327,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="203"/>
-      <c r="P1" s="203"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="203"/>
-      <c r="T1" s="203"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="203"/>
-      <c r="X1" s="203"/>
-      <c r="Y1" s="203"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
     </row>
     <row r="2" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="188" t="s">
@@ -12529,30 +12529,30 @@
       </c>
     </row>
     <row r="3" spans="3:26" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
     </row>
     <row r="4" spans="3:26" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C4" t="s">
@@ -12568,11 +12568,11 @@
       <c r="I4" s="124"/>
     </row>
     <row r="5" spans="3:26" ht="24.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
       <c r="G5" s="125" t="s">
         <v>106</v>
       </c>
@@ -12661,11 +12661,11 @@
       </c>
     </row>
     <row r="13" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="207" t="s">
+      <c r="C13" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="208"/>
-      <c r="E13" s="209"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="210"/>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C14" s="57" t="s">
@@ -12728,17 +12728,17 @@
       <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="202" t="s">
+      <c r="C21" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="204"/>
     </row>
     <row r="22" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
@@ -53427,7 +53427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA80516-3CD7-48EA-8363-3CB456B40459}">
   <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
@@ -53450,50 +53450,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="221" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="215"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="223"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="213" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="217"/>
-      <c r="D4" s="218"/>
-      <c r="G4" s="216" t="s">
+      <c r="C4" s="214"/>
+      <c r="D4" s="215"/>
+      <c r="G4" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="217"/>
-      <c r="I4" s="218"/>
+      <c r="H4" s="214"/>
+      <c r="I4" s="215"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" s="102" t="s">
@@ -53654,31 +53654,31 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B16" s="213" t="s">
+      <c r="B16" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="214"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="215"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="223"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="211" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="G17" s="210" t="s">
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="G17" s="211" t="s">
         <v>246</v>
       </c>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="211"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="212"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="102" t="s">
@@ -53862,12 +53862,12 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="210" t="s">
+      <c r="B26" s="211" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="211"/>
-      <c r="E26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="102" t="s">
@@ -53956,31 +53956,31 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="221" t="s">
+      <c r="B34" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="222"/>
-      <c r="D34" s="222"/>
-      <c r="E34" s="222"/>
-      <c r="F34" s="222"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="222"/>
-      <c r="I34" s="222"/>
-      <c r="J34" s="222"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="210" t="s">
+      <c r="B35" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="211"/>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="G35" s="219" t="s">
+      <c r="C35" s="212"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="G35" s="218" t="s">
         <v>141</v>
       </c>
-      <c r="H35" s="220"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="102" t="s">
@@ -54178,19 +54178,19 @@
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="210" t="s">
+      <c r="B44" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="211"/>
-      <c r="D44" s="211"/>
-      <c r="E44" s="211"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="212"/>
       <c r="F44" s="49"/>
-      <c r="G44" s="210" t="s">
+      <c r="G44" s="211" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="211"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="102" t="s">
@@ -54274,7 +54274,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="228" t="s">
+      <c r="B48" s="202" t="s">
         <v>199</v>
       </c>
       <c r="C48" s="50">
@@ -54287,7 +54287,7 @@
       <c r="E48" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="228" t="s">
+      <c r="G48" s="202" t="s">
         <v>199</v>
       </c>
       <c r="H48" s="79">
@@ -54386,44 +54386,44 @@
       <c r="H52" s="129"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B54" s="221" t="s">
+      <c r="B54" s="216" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="222"/>
-      <c r="D54" s="222"/>
-      <c r="E54" s="222"/>
-      <c r="F54" s="222"/>
-      <c r="G54" s="222"/>
-      <c r="H54" s="222"/>
-      <c r="I54" s="222"/>
-      <c r="J54" s="222"/>
-      <c r="K54" s="222"/>
-      <c r="L54" s="222"/>
-      <c r="M54" s="222"/>
-      <c r="N54" s="222"/>
-      <c r="O54" s="222"/>
-      <c r="P54" s="222"/>
-      <c r="Q54" s="222"/>
+      <c r="C54" s="217"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="217"/>
+      <c r="F54" s="217"/>
+      <c r="G54" s="217"/>
+      <c r="H54" s="217"/>
+      <c r="I54" s="217"/>
+      <c r="J54" s="217"/>
+      <c r="K54" s="217"/>
+      <c r="L54" s="217"/>
+      <c r="M54" s="217"/>
+      <c r="N54" s="217"/>
+      <c r="O54" s="217"/>
+      <c r="P54" s="217"/>
+      <c r="Q54" s="217"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B55" s="210" t="s">
+      <c r="B55" s="211" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="211"/>
-      <c r="D55" s="211"/>
-      <c r="E55" s="211"/>
-      <c r="H55" s="210" t="s">
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="H55" s="211" t="s">
         <v>278</v>
       </c>
-      <c r="I55" s="211"/>
-      <c r="J55" s="211"/>
-      <c r="K55" s="211"/>
-      <c r="N55" s="210" t="s">
+      <c r="I55" s="212"/>
+      <c r="J55" s="212"/>
+      <c r="K55" s="212"/>
+      <c r="N55" s="211" t="s">
         <v>217</v>
       </c>
-      <c r="O55" s="211"/>
-      <c r="P55" s="211"/>
-      <c r="Q55" s="211"/>
+      <c r="O55" s="212"/>
+      <c r="P55" s="212"/>
+      <c r="Q55" s="212"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B56" s="102" t="s">
@@ -54663,21 +54663,21 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="H63" s="210" t="s">
+      <c r="H63" s="211" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="211"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="212"/>
+      <c r="K63" s="212"/>
       <c r="O63" s="100"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B64" s="210" t="s">
+      <c r="B64" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="211"/>
+      <c r="C64" s="212"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="212"/>
       <c r="H64" s="102" t="s">
         <v>56</v>
       </c>
@@ -54841,18 +54841,18 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="210" t="s">
+      <c r="B72" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="211"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="211"/>
-      <c r="H72" s="210" t="s">
+      <c r="C72" s="212"/>
+      <c r="D72" s="212"/>
+      <c r="E72" s="212"/>
+      <c r="H72" s="211" t="s">
         <v>148</v>
       </c>
-      <c r="I72" s="211"/>
-      <c r="J72" s="211"/>
-      <c r="K72" s="211"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="212"/>
+      <c r="K72" s="212"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="102" t="s">
@@ -55015,31 +55015,31 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B80" s="221" t="s">
+      <c r="B80" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="222"/>
-      <c r="D80" s="222"/>
-      <c r="E80" s="222"/>
-      <c r="F80" s="222"/>
-      <c r="G80" s="222"/>
-      <c r="H80" s="222"/>
-      <c r="I80" s="222"/>
-      <c r="J80" s="222"/>
+      <c r="C80" s="217"/>
+      <c r="D80" s="217"/>
+      <c r="E80" s="217"/>
+      <c r="F80" s="217"/>
+      <c r="G80" s="217"/>
+      <c r="H80" s="217"/>
+      <c r="I80" s="217"/>
+      <c r="J80" s="217"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="210" t="s">
+      <c r="B81" s="211" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="211"/>
-      <c r="D81" s="211"/>
-      <c r="E81" s="211"/>
-      <c r="G81" s="210" t="s">
+      <c r="C81" s="212"/>
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
+      <c r="G81" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="H81" s="211"/>
-      <c r="I81" s="211"/>
-      <c r="J81" s="211"/>
+      <c r="H81" s="212"/>
+      <c r="I81" s="212"/>
+      <c r="J81" s="212"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="102" t="s">
@@ -55212,18 +55212,18 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="210" t="s">
+      <c r="B90" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="C90" s="211"/>
-      <c r="D90" s="211"/>
-      <c r="E90" s="211"/>
-      <c r="G90" s="210" t="s">
+      <c r="C90" s="212"/>
+      <c r="D90" s="212"/>
+      <c r="E90" s="212"/>
+      <c r="G90" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="211"/>
-      <c r="I90" s="211"/>
-      <c r="J90" s="211"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="212"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="102" t="s">
@@ -55292,17 +55292,17 @@
     </row>
     <row r="96" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="210" t="s">
+      <c r="B97" s="211" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="211"/>
-      <c r="D97" s="211"/>
-      <c r="E97" s="211"/>
-      <c r="H97" s="216" t="s">
+      <c r="C97" s="212"/>
+      <c r="D97" s="212"/>
+      <c r="E97" s="212"/>
+      <c r="H97" s="213" t="s">
         <v>238</v>
       </c>
-      <c r="I97" s="217"/>
-      <c r="J97" s="218"/>
+      <c r="I97" s="214"/>
+      <c r="J97" s="215"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="102" t="s">
@@ -55375,12 +55375,12 @@
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="210" t="s">
+      <c r="B102" s="211" t="s">
         <v>207</v>
       </c>
-      <c r="C102" s="211"/>
-      <c r="D102" s="211"/>
-      <c r="E102" s="211"/>
+      <c r="C102" s="212"/>
+      <c r="D102" s="212"/>
+      <c r="E102" s="212"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="102" t="s">
@@ -55466,6 +55466,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B34:J34"/>
     <mergeCell ref="B97:E97"/>
     <mergeCell ref="H97:J97"/>
     <mergeCell ref="B102:E102"/>
@@ -55482,19 +55495,6 @@
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B64:E64"/>
     <mergeCell ref="H63:K63"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55541,12 +55541,12 @@
       <c r="F1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="223" t="s">
+      <c r="H1" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="226"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
@@ -56445,10 +56445,10 @@
       <c r="B1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="226" t="s">
+      <c r="E1" s="227" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="227"/>
+      <c r="F1" s="228"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="45">
